--- a/result.xlsx
+++ b/result.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelun/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelun/Desktop/Courses/CSCE_614/Perceptron-Learning-Replacement/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0AEE41-ED9E-2A41-B26C-4AF4003DCD8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1D446-D513-3643-8A55-A39DB2E7C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480" xr2:uid="{D866C50D-7678-074B-B798-7A40F69DDCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>LRU</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Perceptron</t>
   </si>
   <si>
-    <t>Others</t>
-  </si>
-  <si>
     <t>IPC</t>
   </si>
   <si>
@@ -129,6 +126,18 @@
   </si>
   <si>
     <t>657.xz_s_2</t>
+  </si>
+  <si>
+    <t>SHIP</t>
+  </si>
+  <si>
+    <t>GeoMean</t>
+  </si>
+  <si>
+    <t>ArithMean</t>
+  </si>
+  <si>
+    <t>IPC Speedup</t>
   </si>
 </sst>
 </file>
@@ -487,15 +496,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4AE8-01BC-C64A-8EDB-43B1547D9C3D}">
-  <dimension ref="A1:J27"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -503,41 +512,47 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>4</v>
+      </c>
+      <c r="J2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
       </c>
       <c r="B3">
         <v>3.371</v>
@@ -548,10 +563,24 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G3" s="1"/>
+      <c r="H3">
+        <v>3.371</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <f>H3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>2.3330000000000002</v>
@@ -562,10 +591,24 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G4" s="1"/>
+      <c r="H4">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <f>H4/B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>2.1120000000000001</v>
@@ -576,10 +619,24 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G5" s="1"/>
+      <c r="H5">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ref="L5:L27" si="0">H5/B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>1.996</v>
@@ -590,10 +647,24 @@
       <c r="D6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G6" s="1"/>
+      <c r="H6">
+        <v>1.996</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>2.2269999999999999</v>
@@ -604,10 +675,24 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G7" s="1"/>
+      <c r="H7">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>0.35499999999999998</v>
@@ -618,10 +703,24 @@
       <c r="D8">
         <v>24.03144</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G8" s="1"/>
+      <c r="H8">
+        <v>0.35239999999999999</v>
+      </c>
+      <c r="I8">
+        <v>24.97682</v>
+      </c>
+      <c r="J8">
+        <v>23.999510000000001</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="0"/>
+        <v>0.99267605633802825</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>0.3488</v>
@@ -632,10 +731,24 @@
       <c r="D9">
         <v>24.27205</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G9" s="1"/>
+      <c r="H9">
+        <v>0.35010000000000002</v>
+      </c>
+      <c r="I9">
+        <v>24.262440000000002</v>
+      </c>
+      <c r="J9">
+        <v>24.196459999999998</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>1.0037270642201837</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>0.30530000000000002</v>
@@ -646,10 +759,24 @@
       <c r="D10">
         <v>28.002210000000002</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G10" s="1"/>
+      <c r="H10">
+        <v>0.30570000000000003</v>
+      </c>
+      <c r="I10">
+        <v>28.06634</v>
+      </c>
+      <c r="J10">
+        <v>28.005880000000001</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="0"/>
+        <v>1.001310186701605</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>0.3644</v>
@@ -660,10 +787,24 @@
       <c r="D11">
         <v>23.362590000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G11" s="1"/>
+      <c r="H11">
+        <v>0.35920000000000002</v>
+      </c>
+      <c r="I11">
+        <v>25.623190000000001</v>
+      </c>
+      <c r="J11">
+        <v>23.24823</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="0"/>
+        <v>0.98572996706915483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12">
         <v>0.2596</v>
@@ -674,10 +815,24 @@
       <c r="D12">
         <v>33.031869999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G12" s="1"/>
+      <c r="H12">
+        <v>0.25969999999999999</v>
+      </c>
+      <c r="I12">
+        <v>33.128419999999998</v>
+      </c>
+      <c r="J12">
+        <v>33.039450000000002</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="0"/>
+        <v>1.0003852080123266</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13">
         <v>0.2233</v>
@@ -688,10 +843,24 @@
       <c r="D13">
         <v>36.638010000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G13" s="1"/>
+      <c r="H13">
+        <v>0.31</v>
+      </c>
+      <c r="I13">
+        <v>27.411829999999998</v>
+      </c>
+      <c r="J13">
+        <v>27.15504</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="0"/>
+        <v>1.3882669055082848</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B14">
         <v>0.31569999999999998</v>
@@ -702,10 +871,24 @@
       <c r="D14">
         <v>27.148700000000002</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G14" s="1"/>
+      <c r="H14">
+        <v>0.31590000000000001</v>
+      </c>
+      <c r="I14">
+        <v>27.197649999999999</v>
+      </c>
+      <c r="J14">
+        <v>27.143660000000001</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="0"/>
+        <v>1.000633512828635</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B15">
         <v>0.36549999999999999</v>
@@ -716,10 +899,24 @@
       <c r="D15">
         <v>23.32208</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="G15" s="1"/>
+      <c r="H15">
+        <v>0.35980000000000001</v>
+      </c>
+      <c r="I15">
+        <v>25.41001</v>
+      </c>
+      <c r="J15">
+        <v>23.230319999999999</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="0"/>
+        <v>0.98440492476060193</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B16">
         <v>3.1880000000000002</v>
@@ -730,10 +927,24 @@
       <c r="D16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B17">
         <v>0.36330000000000001</v>
@@ -744,10 +955,24 @@
       <c r="D17">
         <v>23.457429999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G17" s="1"/>
+      <c r="H17">
+        <v>0.35809999999999997</v>
+      </c>
+      <c r="I17">
+        <v>25.402999999999999</v>
+      </c>
+      <c r="J17">
+        <v>23.385580000000001</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="0"/>
+        <v>0.9856867602532341</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18">
         <v>0.31759999999999999</v>
@@ -758,10 +983,24 @@
       <c r="D18">
         <v>26.94802</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18">
+        <v>0.31759999999999999</v>
+      </c>
+      <c r="I18">
+        <v>27.00835</v>
+      </c>
+      <c r="J18">
+        <v>26.941759999999999</v>
+      </c>
+      <c r="L18">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B19">
         <v>2.1440000000000001</v>
@@ -772,10 +1011,24 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G19" s="1"/>
+      <c r="H19">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B20">
         <v>2.2719999999999998</v>
@@ -786,10 +1039,24 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G20" s="1"/>
+      <c r="H20">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21">
         <v>2.2490000000000001</v>
@@ -800,10 +1067,24 @@
       <c r="D21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G21" s="1"/>
+      <c r="H21">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22">
         <v>2.9409999999999998</v>
@@ -814,10 +1095,24 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G22" s="1"/>
+      <c r="H22">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23">
         <v>3.4590000000000001</v>
@@ -828,10 +1123,24 @@
       <c r="D23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G23" s="1"/>
+      <c r="H23">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>0.25990000000000002</v>
@@ -842,10 +1151,24 @@
       <c r="D24">
         <v>32.98319</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G24" s="1"/>
+      <c r="H24">
+        <v>0.26</v>
+      </c>
+      <c r="I24">
+        <v>33.091520000000003</v>
+      </c>
+      <c r="J24">
+        <v>32.990630000000003</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="0"/>
+        <v>1.0003847633705272</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B25">
         <v>0.26229999999999998</v>
@@ -856,10 +1179,24 @@
       <c r="D25">
         <v>32.677509999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G25" s="1"/>
+      <c r="H25">
+        <v>0.26250000000000001</v>
+      </c>
+      <c r="I25">
+        <v>32.777920000000002</v>
+      </c>
+      <c r="J25">
+        <v>32.68506</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="0"/>
+        <v>1.0007624857033932</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B26">
         <v>0.38529999999999998</v>
@@ -870,10 +1207,24 @@
       <c r="D26">
         <v>21.958829999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="G26" s="1"/>
+      <c r="H26">
+        <v>0.37430000000000002</v>
+      </c>
+      <c r="I26">
+        <v>28.89049</v>
+      </c>
+      <c r="J26">
+        <v>21.660350000000001</v>
+      </c>
+      <c r="L26">
+        <f t="shared" si="0"/>
+        <v>0.97145081754477047</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B27">
         <v>0.38200000000000001</v>
@@ -883,6 +1234,45 @@
       </c>
       <c r="D27">
         <v>22.14771</v>
+      </c>
+      <c r="G27" s="1"/>
+      <c r="H27">
+        <v>0.371</v>
+      </c>
+      <c r="I27">
+        <v>29.779309999999999</v>
+      </c>
+      <c r="J27">
+        <v>21.82715</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="0"/>
+        <v>0.97120418848167533</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L29" t="s">
+        <v>31</v>
+      </c>
+      <c r="M29" t="s">
+        <v>32</v>
+      </c>
+      <c r="N29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="L30">
+        <f>GEOMEAN(L3:L27)</f>
+        <v>1.0090490738296247</v>
+      </c>
+      <c r="M30">
+        <f>AVERAGE(I3:I27)</f>
+        <v>15.721091599999999</v>
+      </c>
+      <c r="N30">
+        <f>AVERAGE(J3:J27)</f>
+        <v>14.780363200000002</v>
       </c>
     </row>
   </sheetData>

--- a/result.xlsx
+++ b/result.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10814"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zelun/Desktop/Courses/CSCE_614/Perceptron-Learning-Replacement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEF1D446-D513-3643-8A55-A39DB2E7C46C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615FD3F-2A28-4AD6-A176-F69381136BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="500" windowWidth="25440" windowHeight="14480" xr2:uid="{D866C50D-7678-074B-B798-7A40F69DDCF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D866C50D-7678-074B-B798-7A40F69DDCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
   <si>
     <t>LRU</t>
   </si>
@@ -144,7 +144,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,6 +157,12 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -179,9 +185,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -200,9 +215,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -240,7 +255,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -346,7 +361,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -488,7 +503,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -496,29 +511,34 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4AE8-01BC-C64A-8EDB-43B1547D9C3D}">
-  <dimension ref="A1:N30"/>
+  <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="39.375" customWidth="1"/>
+    <col min="6" max="6" width="11" style="6"/>
+    <col min="7" max="7" width="11" style="4"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="F1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" t="s">
         <v>30</v>
       </c>
-      <c r="L1" t="s">
+      <c r="O1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -528,29 +548,32 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K2" t="s">
         <v>2</v>
       </c>
-      <c r="I2" t="s">
+      <c r="L2" t="s">
         <v>4</v>
       </c>
-      <c r="J2" t="s">
+      <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="L2" t="s">
+      <c r="O2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -563,22 +586,34 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3">
+      <c r="F3" s="6">
         <v>3.371</v>
       </c>
+      <c r="G3" s="4">
+        <v>0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>0</v>
+      </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <f>F3/B3</f>
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3.371</v>
       </c>
       <c r="L3">
-        <f>H3/B3</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <f>K3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -591,22 +626,34 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4">
+      <c r="F4" s="6">
         <v>2.3330000000000002</v>
       </c>
+      <c r="G4" s="4">
+        <v>0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>0</v>
+      </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <f>F4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2.3330000000000002</v>
       </c>
       <c r="L4">
-        <f>H4/B4</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <f>K4/B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,22 +666,34 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5">
+      <c r="F5" s="6">
         <v>2.1120000000000001</v>
       </c>
+      <c r="G5" s="4">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <f>F5/B5</f>
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>2.1120000000000001</v>
       </c>
       <c r="L5">
-        <f t="shared" ref="L5:L27" si="0">H5/B5</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <f>K5/B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -647,22 +706,34 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6">
+      <c r="F6" s="6">
         <v>1.996</v>
       </c>
+      <c r="G6" s="4">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <f>F6/B6</f>
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1.996</v>
       </c>
       <c r="L6">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <f>K6/B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -675,22 +746,34 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7">
+      <c r="F7" s="6">
         <v>2.2269999999999999</v>
       </c>
+      <c r="G7" s="4">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <f>F7/B7</f>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>2.2269999999999999</v>
       </c>
       <c r="L7">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <f>K7/B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -703,22 +786,34 @@
       <c r="D8">
         <v>24.03144</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8">
+      <c r="F8" s="6">
+        <v>0.37419999999999998</v>
+      </c>
+      <c r="G8" s="4">
+        <v>46.15719</v>
+      </c>
+      <c r="H8" s="3">
+        <v>22.805</v>
+      </c>
+      <c r="I8">
+        <f>F8/B8</f>
+        <v>1.0540845070422535</v>
+      </c>
+      <c r="K8">
         <v>0.35239999999999999</v>
       </c>
-      <c r="I8">
+      <c r="L8">
         <v>24.97682</v>
       </c>
-      <c r="J8">
+      <c r="M8">
         <v>23.999510000000001</v>
       </c>
-      <c r="L8">
-        <f t="shared" si="0"/>
+      <c r="O8">
+        <f>K8/B8</f>
         <v>0.99267605633802825</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -731,22 +826,34 @@
       <c r="D9">
         <v>24.27205</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9">
+      <c r="F9" s="6">
+        <v>0.29880000000000001</v>
+      </c>
+      <c r="G9" s="5">
+        <v>55.431739999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>31.756399999999999</v>
+      </c>
+      <c r="I9">
+        <f>F9/B9</f>
+        <v>0.85665137614678899</v>
+      </c>
+      <c r="K9">
         <v>0.35010000000000002</v>
       </c>
-      <c r="I9">
+      <c r="L9">
         <v>24.262440000000002</v>
       </c>
-      <c r="J9">
+      <c r="M9">
         <v>24.196459999999998</v>
       </c>
-      <c r="L9">
-        <f t="shared" si="0"/>
+      <c r="O9">
+        <f>K9/B9</f>
         <v>1.0037270642201837</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -759,22 +866,34 @@
       <c r="D10">
         <v>28.002210000000002</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10">
+      <c r="F10" s="6">
+        <v>0.3216</v>
+      </c>
+      <c r="G10" s="5">
+        <v>54.009279999999997</v>
+      </c>
+      <c r="H10" s="3">
+        <v>26.66517</v>
+      </c>
+      <c r="I10">
+        <f>F10/B10</f>
+        <v>1.0533901080904029</v>
+      </c>
+      <c r="K10">
         <v>0.30570000000000003</v>
       </c>
-      <c r="I10">
+      <c r="L10">
         <v>28.06634</v>
       </c>
-      <c r="J10">
+      <c r="M10">
         <v>28.005880000000001</v>
       </c>
-      <c r="L10">
-        <f t="shared" si="0"/>
+      <c r="O10">
+        <f>K10/B10</f>
         <v>1.001310186701605</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -787,22 +906,34 @@
       <c r="D11">
         <v>23.362590000000001</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11">
+      <c r="F11" s="6">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44.386760000000002</v>
+      </c>
+      <c r="H11" s="3">
+        <v>22.12687</v>
+      </c>
+      <c r="I11">
+        <f>F11/B11</f>
+        <v>1.0559824368825466</v>
+      </c>
+      <c r="K11">
         <v>0.35920000000000002</v>
       </c>
-      <c r="I11">
+      <c r="L11">
         <v>25.623190000000001</v>
       </c>
-      <c r="J11">
+      <c r="M11">
         <v>23.24823</v>
       </c>
-      <c r="L11">
-        <f t="shared" si="0"/>
+      <c r="O11">
+        <f>K11/B11</f>
         <v>0.98572996706915483</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -815,22 +946,34 @@
       <c r="D12">
         <v>33.031869999999998</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12">
+      <c r="F12" s="6">
+        <v>0.27539999999999998</v>
+      </c>
+      <c r="G12" s="4">
+        <v>63.790999999999997</v>
+      </c>
+      <c r="H12" s="3">
+        <v>31.49765</v>
+      </c>
+      <c r="I12">
+        <f>F12/B12</f>
+        <v>1.0608628659476116</v>
+      </c>
+      <c r="K12">
         <v>0.25969999999999999</v>
       </c>
-      <c r="I12">
+      <c r="L12">
         <v>33.128419999999998</v>
       </c>
-      <c r="J12">
+      <c r="M12">
         <v>33.039450000000002</v>
       </c>
-      <c r="L12">
-        <f t="shared" si="0"/>
+      <c r="O12">
+        <f>K12/B12</f>
         <v>1.0003852080123266</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -843,22 +986,34 @@
       <c r="D13">
         <v>36.638010000000001</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13">
+      <c r="F13" s="6">
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="G13" s="5">
+        <v>60.274270000000001</v>
+      </c>
+      <c r="H13" s="3">
+        <v>36.546379999999999</v>
+      </c>
+      <c r="I13">
+        <f>F13/B13</f>
+        <v>1.0076130765785938</v>
+      </c>
+      <c r="K13">
         <v>0.31</v>
       </c>
-      <c r="I13">
+      <c r="L13">
         <v>27.411829999999998</v>
       </c>
-      <c r="J13">
+      <c r="M13">
         <v>27.15504</v>
       </c>
-      <c r="L13">
-        <f t="shared" si="0"/>
+      <c r="O13">
+        <f>K13/B13</f>
         <v>1.3882669055082848</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -871,22 +1026,34 @@
       <c r="D14">
         <v>27.148700000000002</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14">
+      <c r="F14" s="6">
+        <v>0.31929999999999997</v>
+      </c>
+      <c r="G14" s="5">
+        <v>53.469900000000003</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27.025770000000001</v>
+      </c>
+      <c r="I14">
+        <f>F14/B14</f>
+        <v>1.0114032309154259</v>
+      </c>
+      <c r="K14">
         <v>0.31590000000000001</v>
       </c>
-      <c r="I14">
+      <c r="L14">
         <v>27.197649999999999</v>
       </c>
-      <c r="J14">
+      <c r="M14">
         <v>27.143660000000001</v>
       </c>
-      <c r="L14">
-        <f t="shared" si="0"/>
+      <c r="O14">
+        <f>K14/B14</f>
         <v>1.000633512828635</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -899,22 +1066,34 @@
       <c r="D15">
         <v>23.32208</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15">
+      <c r="F15" s="6">
+        <v>0.38479999999999998</v>
+      </c>
+      <c r="G15" s="5">
+        <v>44.800789999999999</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22.123830000000002</v>
+      </c>
+      <c r="I15">
+        <f>F15/B15</f>
+        <v>1.0528043775649794</v>
+      </c>
+      <c r="K15">
         <v>0.35980000000000001</v>
       </c>
-      <c r="I15">
+      <c r="L15">
         <v>25.41001</v>
       </c>
-      <c r="J15">
+      <c r="M15">
         <v>23.230319999999999</v>
       </c>
-      <c r="L15">
-        <f t="shared" si="0"/>
+      <c r="O15">
+        <f>K15/B15</f>
         <v>0.98440492476060193</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -927,22 +1106,34 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16">
+      <c r="F16" s="6">
         <v>3.1880000000000002</v>
       </c>
+      <c r="G16" s="5">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <f>F16/B16</f>
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3.1880000000000002</v>
       </c>
       <c r="L16">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <f>K16/B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -955,22 +1146,34 @@
       <c r="D17">
         <v>23.457429999999999</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17">
+      <c r="F17" s="6">
+        <v>0.38269999999999998</v>
+      </c>
+      <c r="G17" s="5">
+        <v>45.097059999999999</v>
+      </c>
+      <c r="H17" s="3">
+        <v>22.264700000000001</v>
+      </c>
+      <c r="I17">
+        <f>F17/B17</f>
+        <v>1.0533993944398568</v>
+      </c>
+      <c r="K17">
         <v>0.35809999999999997</v>
       </c>
-      <c r="I17">
+      <c r="L17">
         <v>25.402999999999999</v>
       </c>
-      <c r="J17">
+      <c r="M17">
         <v>23.385580000000001</v>
       </c>
-      <c r="L17">
-        <f t="shared" si="0"/>
+      <c r="O17">
+        <f>K17/B17</f>
         <v>0.9856867602532341</v>
       </c>
     </row>
-    <row r="18" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -983,22 +1186,34 @@
       <c r="D18">
         <v>26.94802</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18">
+      <c r="F18" s="6">
+        <v>0.33589999999999998</v>
+      </c>
+      <c r="G18" s="5">
+        <v>51.687980000000003</v>
+      </c>
+      <c r="H18" s="3">
+        <v>25.5593</v>
+      </c>
+      <c r="I18">
+        <f>F18/B18</f>
+        <v>1.0576196473551638</v>
+      </c>
+      <c r="K18">
         <v>0.31759999999999999</v>
       </c>
-      <c r="I18">
+      <c r="L18">
         <v>27.00835</v>
       </c>
-      <c r="J18">
+      <c r="M18">
         <v>26.941759999999999</v>
       </c>
-      <c r="L18">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O18">
+        <f>K18/B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1011,22 +1226,34 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19">
+      <c r="F19" s="6">
         <v>2.1440000000000001</v>
       </c>
+      <c r="G19" s="5">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <f>F19/B19</f>
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>2.1440000000000001</v>
       </c>
       <c r="L19">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <f>K19/B19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1039,22 +1266,34 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20">
+      <c r="F20" s="6">
         <v>2.2719999999999998</v>
       </c>
+      <c r="G20" s="5">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <f>F20/B20</f>
+        <v>1</v>
+      </c>
+      <c r="K20">
+        <v>2.2719999999999998</v>
       </c>
       <c r="L20">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <f>K20/B20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1067,22 +1306,34 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21">
+      <c r="F21" s="6">
         <v>2.2490000000000001</v>
       </c>
+      <c r="G21" s="5">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <f>F21/B21</f>
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>2.2490000000000001</v>
       </c>
       <c r="L21">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <f>K21/B21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1095,22 +1346,34 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22">
+      <c r="F22" s="6">
         <v>2.9409999999999998</v>
       </c>
+      <c r="G22" s="5">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <f>F22/B22</f>
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2.9409999999999998</v>
       </c>
       <c r="L22">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <f>K22/B22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="16.5">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1123,22 +1386,34 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23">
+      <c r="F23" s="6">
         <v>3.4590000000000001</v>
       </c>
+      <c r="G23" s="5">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <f>F23/B23</f>
+        <v>1</v>
+      </c>
+      <c r="K23">
+        <v>3.4590000000000001</v>
       </c>
       <c r="L23">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <f>K23/B23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="16.5">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1151,22 +1426,34 @@
       <c r="D24">
         <v>32.98319</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24">
+      <c r="F24" s="6">
+        <v>0.27589999999999998</v>
+      </c>
+      <c r="G24" s="5">
+        <v>63.668120000000002</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31.44257</v>
+      </c>
+      <c r="I24">
+        <f>F24/B24</f>
+        <v>1.06156213928434</v>
+      </c>
+      <c r="K24">
         <v>0.26</v>
       </c>
-      <c r="I24">
+      <c r="L24">
         <v>33.091520000000003</v>
       </c>
-      <c r="J24">
+      <c r="M24">
         <v>32.990630000000003</v>
       </c>
-      <c r="L24">
-        <f t="shared" si="0"/>
+      <c r="O24">
+        <f>K24/B24</f>
         <v>1.0003847633705272</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="16.5">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1179,22 +1466,34 @@
       <c r="D25">
         <v>32.677509999999998</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25">
+      <c r="F25" s="6">
+        <v>0.27860000000000001</v>
+      </c>
+      <c r="G25" s="5">
+        <v>63.063899999999997</v>
+      </c>
+      <c r="H25" s="3">
+        <v>31.132280000000002</v>
+      </c>
+      <c r="I25">
+        <f>F25/B25</f>
+        <v>1.0621425848265347</v>
+      </c>
+      <c r="K25">
         <v>0.26250000000000001</v>
       </c>
-      <c r="I25">
+      <c r="L25">
         <v>32.777920000000002</v>
       </c>
-      <c r="J25">
+      <c r="M25">
         <v>32.68506</v>
       </c>
-      <c r="L25">
-        <f t="shared" si="0"/>
+      <c r="O25">
+        <f>K25/B25</f>
         <v>1.0007624857033932</v>
       </c>
     </row>
-    <row r="26" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="16.5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1207,22 +1506,34 @@
       <c r="D26">
         <v>21.958829999999999</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26">
+      <c r="F26" s="6">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="G26" s="5">
+        <v>42.174790000000002</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20.851990000000001</v>
+      </c>
+      <c r="I26">
+        <f>F26/B26</f>
+        <v>1.0542434466649364</v>
+      </c>
+      <c r="K26">
         <v>0.37430000000000002</v>
       </c>
-      <c r="I26">
+      <c r="L26">
         <v>28.89049</v>
       </c>
-      <c r="J26">
+      <c r="M26">
         <v>21.660350000000001</v>
       </c>
-      <c r="L26">
-        <f t="shared" si="0"/>
+      <c r="O26">
+        <f>K26/B26</f>
         <v>0.97145081754477047</v>
       </c>
     </row>
-    <row r="27" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="16.5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1235,43 +1546,66 @@
       <c r="D27">
         <v>22.14771</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27">
+      <c r="F27" s="6">
+        <v>0.40239999999999998</v>
+      </c>
+      <c r="G27" s="5">
+        <v>42.592309999999998</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21.048390000000001</v>
+      </c>
+      <c r="I27">
+        <f>F27/B27</f>
+        <v>1.0534031413612566</v>
+      </c>
+      <c r="K27">
         <v>0.371</v>
       </c>
-      <c r="I27">
+      <c r="L27">
         <v>29.779309999999999</v>
       </c>
-      <c r="J27">
+      <c r="M27">
         <v>21.82715</v>
       </c>
-      <c r="L27">
-        <f t="shared" si="0"/>
+      <c r="O27">
+        <f>K27/B27</f>
         <v>0.97120418848167533</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L29" t="s">
+    <row r="28" spans="1:17">
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="H29" s="2"/>
+      <c r="I29" t="s">
         <v>31</v>
       </c>
-      <c r="M29" t="s">
+      <c r="O29" t="s">
+        <v>31</v>
+      </c>
+      <c r="P29" t="s">
         <v>32</v>
       </c>
-      <c r="N29" t="s">
+      <c r="Q29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="L30">
-        <f>GEOMEAN(L3:L27)</f>
+    <row r="30" spans="1:17">
+      <c r="I30">
+        <f>GEOMEAN(I3:I27)</f>
+        <v>1.0188481824021944</v>
+      </c>
+      <c r="O30">
+        <f>GEOMEAN(O3:O27)</f>
         <v>1.0090490738296247</v>
       </c>
-      <c r="M30">
-        <f>AVERAGE(I3:I27)</f>
+      <c r="P30">
+        <f>AVERAGE(L3:L27)</f>
         <v>15.721091599999999</v>
       </c>
-      <c r="N30">
-        <f>AVERAGE(J3:J27)</f>
+      <c r="Q30">
+        <f>AVERAGE(M3:M27)</f>
         <v>14.780363200000002</v>
       </c>
     </row>

--- a/result.xlsx
+++ b/result.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marsh\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6615FD3F-2A28-4AD6-A176-F69381136BBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F4DACBC-8FB8-4D49-88BF-48638176918F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D866C50D-7678-074B-B798-7A40F69DDCF4}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{D866C50D-7678-074B-B798-7A40F69DDCF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="35">
   <si>
     <t>LRU</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>IPC Speedup</t>
+  </si>
+  <si>
+    <t>New Perceptron</t>
   </si>
 </sst>
 </file>
@@ -185,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -197,6 +200,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -511,34 +515,37 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF8B4AE8-01BC-C64A-8EDB-43B1547D9C3D}">
-  <dimension ref="A1:Q30"/>
+  <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="39.375" customWidth="1"/>
-    <col min="6" max="6" width="11" style="6"/>
-    <col min="7" max="7" width="11" style="4"/>
+    <col min="11" max="11" width="11" style="6"/>
+    <col min="12" max="12" width="11" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="K1" t="s">
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
         <v>30</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -560,20 +567,32 @@
       <c r="I2" t="s">
         <v>33</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="M2" t="s">
         <v>3</v>
       </c>
-      <c r="O2" t="s">
+      <c r="N2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" ht="16.5">
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>4</v>
+      </c>
+      <c r="R2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="16.5">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -586,10 +605,10 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3">
         <v>3.371</v>
       </c>
-      <c r="G3" s="4">
+      <c r="G3" s="2">
         <v>0</v>
       </c>
       <c r="H3" s="2">
@@ -599,21 +618,34 @@
         <f>F3/B3</f>
         <v>1</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>3.371</v>
       </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="O3">
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="2">
+        <v>0</v>
+      </c>
+      <c r="N3">
         <f>K3/B3</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" ht="16.5">
+      <c r="P3">
+        <v>3.371</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <f>P3/B3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="16.5">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -626,34 +658,47 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4">
         <v>2.3330000000000002</v>
       </c>
-      <c r="G4" s="4">
+      <c r="G4" s="2">
         <v>0</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
       </c>
       <c r="I4">
-        <f>F4/B4</f>
-        <v>1</v>
-      </c>
-      <c r="K4">
+        <f t="shared" ref="I4:I27" si="0">F4/B4</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="6">
         <v>2.3330000000000002</v>
       </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="O4">
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="2">
+        <v>0</v>
+      </c>
+      <c r="N4">
         <f>K4/B4</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" ht="16.5">
+      <c r="P4">
+        <v>2.3330000000000002</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <f>P4/B4</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="16.5">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -666,34 +711,47 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5">
         <v>2.1120000000000001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
       </c>
       <c r="I5">
-        <f>F5/B5</f>
-        <v>1</v>
-      </c>
-      <c r="K5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K5" s="6">
         <v>2.1120000000000001</v>
       </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="O5">
+      <c r="L5" s="4">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5">
         <f>K5/B5</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="16.5">
+      <c r="P5">
+        <v>2.1120000000000001</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <f>P5/B5</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="16.5">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
@@ -709,31 +767,45 @@
       <c r="F6" s="6">
         <v>1.996</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>0</v>
       </c>
       <c r="H6" s="2">
         <v>0</v>
       </c>
       <c r="I6">
-        <f>F6/B6</f>
-        <v>1</v>
-      </c>
-      <c r="K6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6">
         <v>1.996</v>
       </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="O6">
+      <c r="L6" s="4">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <f>K6/B6</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" ht="16.5">
+      <c r="P6">
+        <v>1.996</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <f>P6/B6</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="16.5">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -749,31 +821,45 @@
       <c r="F7" s="6">
         <v>2.2269999999999999</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>0</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
       </c>
       <c r="I7">
-        <f>F7/B7</f>
-        <v>1</v>
-      </c>
-      <c r="K7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6">
         <v>2.2269999999999999</v>
       </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="O7">
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7">
         <f>K7/B7</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" ht="16.5">
+      <c r="P7">
+        <v>2.2269999999999999</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <f>P7/B7</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="16.5">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -786,34 +872,48 @@
       <c r="D8">
         <v>24.03144</v>
       </c>
-      <c r="F8" s="6">
+      <c r="F8" s="7">
+        <v>0.37459999999999999</v>
+      </c>
+      <c r="G8" s="3">
+        <v>46.127000000000002</v>
+      </c>
+      <c r="H8" s="3">
+        <v>22.79898</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0552112676056338</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="6">
         <v>0.37419999999999998</v>
       </c>
-      <c r="G8" s="4">
+      <c r="L8" s="4">
         <v>46.15719</v>
       </c>
-      <c r="H8" s="3">
+      <c r="M8" s="3">
         <v>22.805</v>
       </c>
-      <c r="I8">
-        <f>F8/B8</f>
+      <c r="N8">
+        <f>K8/B8</f>
         <v>1.0540845070422535</v>
       </c>
-      <c r="K8">
+      <c r="P8">
         <v>0.35239999999999999</v>
       </c>
-      <c r="L8">
+      <c r="Q8">
         <v>24.97682</v>
       </c>
-      <c r="M8">
+      <c r="R8">
         <v>23.999510000000001</v>
       </c>
-      <c r="O8">
-        <f>K8/B8</f>
+      <c r="T8">
+        <f>P8/B8</f>
         <v>0.99267605633802825</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="16.5">
+    <row r="9" spans="1:20" ht="16.5">
       <c r="A9" s="1" t="s">
         <v>11</v>
       </c>
@@ -826,34 +926,48 @@
       <c r="D9">
         <v>24.27205</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="7">
+        <v>0.32240000000000002</v>
+      </c>
+      <c r="G9" s="3">
+        <v>51.625889999999998</v>
+      </c>
+      <c r="H9" s="3">
+        <v>28.094200000000001</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.92431192660550465</v>
+      </c>
+      <c r="J9" s="7"/>
+      <c r="K9" s="6">
         <v>0.29880000000000001</v>
       </c>
-      <c r="G9" s="5">
+      <c r="L9" s="5">
         <v>55.431739999999998</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>31.756399999999999</v>
       </c>
-      <c r="I9">
-        <f>F9/B9</f>
+      <c r="N9">
+        <f>K9/B9</f>
         <v>0.85665137614678899</v>
       </c>
-      <c r="K9">
+      <c r="P9">
         <v>0.35010000000000002</v>
       </c>
-      <c r="L9">
+      <c r="Q9">
         <v>24.262440000000002</v>
       </c>
-      <c r="M9">
+      <c r="R9">
         <v>24.196459999999998</v>
       </c>
-      <c r="O9">
-        <f>K9/B9</f>
+      <c r="T9">
+        <f>P9/B9</f>
         <v>1.0037270642201837</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="16.5">
+    <row r="10" spans="1:20" ht="16.5">
       <c r="A10" s="1" t="s">
         <v>12</v>
       </c>
@@ -866,34 +980,48 @@
       <c r="D10">
         <v>28.002210000000002</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="7">
+        <v>0.32250000000000001</v>
+      </c>
+      <c r="G10" s="3">
+        <v>53.812919999999998</v>
+      </c>
+      <c r="H10" s="3">
+        <v>26.693429999999999</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="0"/>
+        <v>1.056338028169014</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="6">
         <v>0.3216</v>
       </c>
-      <c r="G10" s="5">
+      <c r="L10" s="5">
         <v>54.009279999999997</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>26.66517</v>
       </c>
-      <c r="I10">
-        <f>F10/B10</f>
+      <c r="N10">
+        <f>K10/B10</f>
         <v>1.0533901080904029</v>
       </c>
-      <c r="K10">
+      <c r="P10">
         <v>0.30570000000000003</v>
       </c>
-      <c r="L10">
+      <c r="Q10">
         <v>28.06634</v>
       </c>
-      <c r="M10">
+      <c r="R10">
         <v>28.005880000000001</v>
       </c>
-      <c r="O10">
-        <f>K10/B10</f>
+      <c r="T10">
+        <f>P10/B10</f>
         <v>1.001310186701605</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="16.5">
+    <row r="11" spans="1:20" ht="16.5">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,34 +1034,48 @@
       <c r="D11">
         <v>23.362590000000001</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="7">
+        <v>0.38500000000000001</v>
+      </c>
+      <c r="G11" s="3">
+        <v>44.32206</v>
+      </c>
+      <c r="H11" s="3">
+        <v>22.121379999999998</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="0"/>
+        <v>1.0565312843029637</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="6">
         <v>0.38479999999999998</v>
       </c>
-      <c r="G11" s="4">
+      <c r="L11" s="4">
         <v>44.386760000000002</v>
       </c>
-      <c r="H11" s="3">
+      <c r="M11" s="3">
         <v>22.12687</v>
       </c>
-      <c r="I11">
-        <f>F11/B11</f>
+      <c r="N11">
+        <f>K11/B11</f>
         <v>1.0559824368825466</v>
       </c>
-      <c r="K11">
+      <c r="P11">
         <v>0.35920000000000002</v>
       </c>
-      <c r="L11">
+      <c r="Q11">
         <v>25.623190000000001</v>
       </c>
-      <c r="M11">
+      <c r="R11">
         <v>23.24823</v>
       </c>
-      <c r="O11">
-        <f>K11/B11</f>
+      <c r="T11">
+        <f>P11/B11</f>
         <v>0.98572996706915483</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="16.5">
+    <row r="12" spans="1:20" ht="16.5">
       <c r="A12" s="1" t="s">
         <v>14</v>
       </c>
@@ -946,34 +1088,47 @@
       <c r="D12">
         <v>33.031869999999998</v>
       </c>
-      <c r="F12" s="6">
+      <c r="F12" s="7">
+        <v>0.27779999999999999</v>
+      </c>
+      <c r="G12" s="3">
+        <v>63.176819999999999</v>
+      </c>
+      <c r="H12" s="3">
+        <v>31.509340000000002</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="0"/>
+        <v>1.0701078582434513</v>
+      </c>
+      <c r="K12" s="6">
         <v>0.27539999999999998</v>
       </c>
-      <c r="G12" s="4">
+      <c r="L12" s="4">
         <v>63.790999999999997</v>
       </c>
-      <c r="H12" s="3">
+      <c r="M12" s="3">
         <v>31.49765</v>
       </c>
-      <c r="I12">
-        <f>F12/B12</f>
+      <c r="N12">
+        <f>K12/B12</f>
         <v>1.0608628659476116</v>
       </c>
-      <c r="K12">
+      <c r="P12">
         <v>0.25969999999999999</v>
       </c>
-      <c r="L12">
+      <c r="Q12">
         <v>33.128419999999998</v>
       </c>
-      <c r="M12">
+      <c r="R12">
         <v>33.039450000000002</v>
       </c>
-      <c r="O12">
-        <f>K12/B12</f>
+      <c r="T12">
+        <f>P12/B12</f>
         <v>1.0003852080123266</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="16.5">
+    <row r="13" spans="1:20" ht="16.5">
       <c r="A13" s="1" t="s">
         <v>15</v>
       </c>
@@ -986,34 +1141,47 @@
       <c r="D13">
         <v>36.638010000000001</v>
       </c>
-      <c r="F13" s="6">
+      <c r="F13">
+        <v>0.20519999999999999</v>
+      </c>
+      <c r="G13" s="3">
+        <v>64.24785</v>
+      </c>
+      <c r="H13" s="3">
+        <v>41.628639999999997</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="0"/>
+        <v>0.91894312583967752</v>
+      </c>
+      <c r="K13" s="6">
         <v>0.22500000000000001</v>
       </c>
-      <c r="G13" s="5">
+      <c r="L13" s="5">
         <v>60.274270000000001</v>
       </c>
-      <c r="H13" s="3">
+      <c r="M13" s="3">
         <v>36.546379999999999</v>
       </c>
-      <c r="I13">
-        <f>F13/B13</f>
+      <c r="N13">
+        <f>K13/B13</f>
         <v>1.0076130765785938</v>
       </c>
-      <c r="K13">
+      <c r="P13">
         <v>0.31</v>
       </c>
-      <c r="L13">
+      <c r="Q13">
         <v>27.411829999999998</v>
       </c>
-      <c r="M13">
+      <c r="R13">
         <v>27.15504</v>
       </c>
-      <c r="O13">
-        <f>K13/B13</f>
+      <c r="T13">
+        <f>P13/B13</f>
         <v>1.3882669055082848</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="16.5">
+    <row r="14" spans="1:20" ht="16.5">
       <c r="A14" s="1" t="s">
         <v>16</v>
       </c>
@@ -1026,34 +1194,47 @@
       <c r="D14">
         <v>27.148700000000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14">
+        <v>0.32129999999999997</v>
+      </c>
+      <c r="G14" s="3">
+        <v>53.057940000000002</v>
+      </c>
+      <c r="H14" s="3">
+        <v>27.086680000000001</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="0"/>
+        <v>1.0177383592017739</v>
+      </c>
+      <c r="K14" s="6">
         <v>0.31929999999999997</v>
       </c>
-      <c r="G14" s="5">
+      <c r="L14" s="5">
         <v>53.469900000000003</v>
       </c>
-      <c r="H14" s="3">
+      <c r="M14" s="3">
         <v>27.025770000000001</v>
       </c>
-      <c r="I14">
-        <f>F14/B14</f>
+      <c r="N14">
+        <f>K14/B14</f>
         <v>1.0114032309154259</v>
       </c>
-      <c r="K14">
+      <c r="P14">
         <v>0.31590000000000001</v>
       </c>
-      <c r="L14">
+      <c r="Q14">
         <v>27.197649999999999</v>
       </c>
-      <c r="M14">
+      <c r="R14">
         <v>27.143660000000001</v>
       </c>
-      <c r="O14">
-        <f>K14/B14</f>
+      <c r="T14">
+        <f>P14/B14</f>
         <v>1.000633512828635</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="16.5">
+    <row r="15" spans="1:20" ht="16.5">
       <c r="A15" s="1" t="s">
         <v>17</v>
       </c>
@@ -1066,34 +1247,47 @@
       <c r="D15">
         <v>23.32208</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15">
+        <v>0.38540000000000002</v>
+      </c>
+      <c r="G15" s="3">
+        <v>44.766770000000001</v>
+      </c>
+      <c r="H15" s="3">
+        <v>22.121510000000001</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="0"/>
+        <v>1.0544459644322846</v>
+      </c>
+      <c r="K15" s="6">
         <v>0.38479999999999998</v>
       </c>
-      <c r="G15" s="5">
+      <c r="L15" s="5">
         <v>44.800789999999999</v>
       </c>
-      <c r="H15" s="3">
+      <c r="M15" s="3">
         <v>22.123830000000002</v>
       </c>
-      <c r="I15">
-        <f>F15/B15</f>
+      <c r="N15">
+        <f>K15/B15</f>
         <v>1.0528043775649794</v>
       </c>
-      <c r="K15">
+      <c r="P15">
         <v>0.35980000000000001</v>
       </c>
-      <c r="L15">
+      <c r="Q15">
         <v>25.41001</v>
       </c>
-      <c r="M15">
+      <c r="R15">
         <v>23.230319999999999</v>
       </c>
-      <c r="O15">
-        <f>K15/B15</f>
+      <c r="T15">
+        <f>P15/B15</f>
         <v>0.98440492476060193</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="16.5">
+    <row r="16" spans="1:20" ht="16.5">
       <c r="A16" s="1" t="s">
         <v>18</v>
       </c>
@@ -1106,34 +1300,47 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16">
         <v>3.1880000000000002</v>
       </c>
-      <c r="G16" s="5">
-        <v>0</v>
-      </c>
-      <c r="H16" s="2">
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
         <v>0</v>
       </c>
       <c r="I16">
-        <f>F16/B16</f>
-        <v>1</v>
-      </c>
-      <c r="K16">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K16" s="6">
         <v>3.1880000000000002</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="O16">
+      <c r="L16" s="5">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16">
         <f>K16/B16</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" ht="16.5">
+      <c r="P16">
+        <v>3.1880000000000002</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <f>P16/B16</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" ht="16.5">
       <c r="A17" s="1" t="s">
         <v>19</v>
       </c>
@@ -1146,34 +1353,47 @@
       <c r="D17">
         <v>23.457429999999999</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17">
+        <v>0.38250000000000001</v>
+      </c>
+      <c r="G17" s="3">
+        <v>45.11045</v>
+      </c>
+      <c r="H17" s="2">
+        <v>22.271999999999998</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="0"/>
+        <v>1.0528488852188274</v>
+      </c>
+      <c r="K17" s="6">
         <v>0.38269999999999998</v>
       </c>
-      <c r="G17" s="5">
+      <c r="L17" s="5">
         <v>45.097059999999999</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>22.264700000000001</v>
       </c>
-      <c r="I17">
-        <f>F17/B17</f>
+      <c r="N17">
+        <f>K17/B17</f>
         <v>1.0533993944398568</v>
       </c>
-      <c r="K17">
+      <c r="P17">
         <v>0.35809999999999997</v>
       </c>
-      <c r="L17">
+      <c r="Q17">
         <v>25.402999999999999</v>
       </c>
-      <c r="M17">
+      <c r="R17">
         <v>23.385580000000001</v>
       </c>
-      <c r="O17">
-        <f>K17/B17</f>
+      <c r="T17">
+        <f>P17/B17</f>
         <v>0.9856867602532341</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="16.5">
+    <row r="18" spans="1:22" ht="16.5">
       <c r="A18" s="1" t="s">
         <v>20</v>
       </c>
@@ -1186,34 +1406,47 @@
       <c r="D18">
         <v>26.94802</v>
       </c>
-      <c r="F18" s="6">
+      <c r="F18">
+        <v>0.33579999999999999</v>
+      </c>
+      <c r="G18" s="3">
+        <v>51.671169999999996</v>
+      </c>
+      <c r="H18" s="3">
+        <v>25.560089999999999</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="0"/>
+        <v>1.0573047858942066</v>
+      </c>
+      <c r="K18" s="6">
         <v>0.33589999999999998</v>
       </c>
-      <c r="G18" s="5">
+      <c r="L18" s="5">
         <v>51.687980000000003</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>25.5593</v>
       </c>
-      <c r="I18">
-        <f>F18/B18</f>
+      <c r="N18">
+        <f>K18/B18</f>
         <v>1.0576196473551638</v>
       </c>
-      <c r="K18">
+      <c r="P18">
         <v>0.31759999999999999</v>
       </c>
-      <c r="L18">
+      <c r="Q18">
         <v>27.00835</v>
       </c>
-      <c r="M18">
+      <c r="R18">
         <v>26.941759999999999</v>
       </c>
-      <c r="O18">
-        <f>K18/B18</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" ht="16.5">
+      <c r="T18">
+        <f>P18/B18</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.5">
       <c r="A19" s="1" t="s">
         <v>21</v>
       </c>
@@ -1226,34 +1459,47 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="F19" s="6">
+      <c r="F19">
         <v>2.1440000000000001</v>
       </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="2">
+      <c r="G19" s="3">
+        <v>0</v>
+      </c>
+      <c r="H19" s="3">
         <v>0</v>
       </c>
       <c r="I19">
-        <f>F19/B19</f>
-        <v>1</v>
-      </c>
-      <c r="K19">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="K19" s="6">
         <v>2.1440000000000001</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="O19">
+      <c r="L19" s="5">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19">
         <f>K19/B19</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" ht="16.5">
+      <c r="P19">
+        <v>2.1440000000000001</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <f>P19/B19</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" ht="16.5">
       <c r="A20" s="1" t="s">
         <v>22</v>
       </c>
@@ -1269,31 +1515,45 @@
       <c r="F20" s="6">
         <v>2.2719999999999998</v>
       </c>
-      <c r="G20" s="5">
-        <v>0</v>
-      </c>
-      <c r="H20" s="2">
+      <c r="G20" s="3">
+        <v>0</v>
+      </c>
+      <c r="H20" s="3">
         <v>0</v>
       </c>
       <c r="I20">
-        <f>F20/B20</f>
-        <v>1</v>
-      </c>
-      <c r="K20">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6">
         <v>2.2719999999999998</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="O20">
+      <c r="L20" s="5">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20">
         <f>K20/B20</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" ht="16.5">
+      <c r="P20">
+        <v>2.2719999999999998</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <f>P20/B20</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" ht="16.5">
       <c r="A21" s="1" t="s">
         <v>23</v>
       </c>
@@ -1309,31 +1569,45 @@
       <c r="F21" s="6">
         <v>2.2490000000000001</v>
       </c>
-      <c r="G21" s="5">
-        <v>0</v>
-      </c>
-      <c r="H21" s="2">
+      <c r="G21" s="3">
+        <v>0</v>
+      </c>
+      <c r="H21" s="3">
         <v>0</v>
       </c>
       <c r="I21">
-        <f>F21/B21</f>
-        <v>1</v>
-      </c>
-      <c r="K21">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6">
         <v>2.2490000000000001</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="O21">
+      <c r="L21" s="5">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21">
         <f>K21/B21</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" ht="16.5">
+      <c r="P21">
+        <v>2.2490000000000001</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <f>P21/B21</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" ht="16.5">
       <c r="A22" s="1" t="s">
         <v>24</v>
       </c>
@@ -1349,31 +1623,45 @@
       <c r="F22" s="6">
         <v>2.9409999999999998</v>
       </c>
-      <c r="G22" s="5">
-        <v>0</v>
-      </c>
-      <c r="H22" s="2">
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
         <v>0</v>
       </c>
       <c r="I22">
-        <f>F22/B22</f>
-        <v>1</v>
-      </c>
-      <c r="K22">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6">
         <v>2.9409999999999998</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="O22">
+      <c r="L22" s="5">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22">
         <f>K22/B22</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" ht="16.5">
+      <c r="P22">
+        <v>2.9409999999999998</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <f>P22/B22</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" ht="16.5">
       <c r="A23" s="1" t="s">
         <v>25</v>
       </c>
@@ -1389,31 +1677,45 @@
       <c r="F23" s="6">
         <v>3.4590000000000001</v>
       </c>
-      <c r="G23" s="5">
-        <v>0</v>
-      </c>
-      <c r="H23" s="2">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>0</v>
       </c>
       <c r="I23">
-        <f>F23/B23</f>
-        <v>1</v>
-      </c>
-      <c r="K23">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6">
         <v>3.4590000000000001</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="O23">
+      <c r="L23" s="5">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23">
         <f>K23/B23</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" ht="16.5">
+      <c r="P23">
+        <v>3.4590000000000001</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <f>P23/B23</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="16.5">
       <c r="A24" s="1" t="s">
         <v>26</v>
       </c>
@@ -1426,34 +1728,47 @@
       <c r="D24">
         <v>32.98319</v>
       </c>
-      <c r="F24" s="6">
+      <c r="F24" s="7">
+        <v>0.27829999999999999</v>
+      </c>
+      <c r="G24" s="3">
+        <v>63.059510000000003</v>
+      </c>
+      <c r="H24" s="3">
+        <v>31.451419999999999</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="0"/>
+        <v>1.070796460176991</v>
+      </c>
+      <c r="K24" s="6">
         <v>0.27589999999999998</v>
       </c>
-      <c r="G24" s="5">
+      <c r="L24" s="5">
         <v>63.668120000000002</v>
       </c>
-      <c r="H24" s="3">
+      <c r="M24" s="3">
         <v>31.44257</v>
       </c>
-      <c r="I24">
-        <f>F24/B24</f>
+      <c r="N24">
+        <f>K24/B24</f>
         <v>1.06156213928434</v>
       </c>
-      <c r="K24">
+      <c r="P24">
         <v>0.26</v>
       </c>
-      <c r="L24">
+      <c r="Q24">
         <v>33.091520000000003</v>
       </c>
-      <c r="M24">
+      <c r="R24">
         <v>32.990630000000003</v>
       </c>
-      <c r="O24">
-        <f>K24/B24</f>
+      <c r="T24">
+        <f>P24/B24</f>
         <v>1.0003847633705272</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="16.5">
+    <row r="25" spans="1:22" ht="16.5">
       <c r="A25" s="1" t="s">
         <v>27</v>
       </c>
@@ -1466,34 +1781,47 @@
       <c r="D25">
         <v>32.677509999999998</v>
       </c>
-      <c r="F25" s="6">
+      <c r="F25">
+        <v>0.28089999999999998</v>
+      </c>
+      <c r="G25" s="3">
+        <v>62.484859999999998</v>
+      </c>
+      <c r="H25" s="3">
+        <v>31.15437</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="0"/>
+        <v>1.0709111704155547</v>
+      </c>
+      <c r="K25" s="6">
         <v>0.27860000000000001</v>
       </c>
-      <c r="G25" s="5">
+      <c r="L25" s="5">
         <v>63.063899999999997</v>
       </c>
-      <c r="H25" s="3">
+      <c r="M25" s="3">
         <v>31.132280000000002</v>
       </c>
-      <c r="I25">
-        <f>F25/B25</f>
+      <c r="N25">
+        <f>K25/B25</f>
         <v>1.0621425848265347</v>
       </c>
-      <c r="K25">
+      <c r="P25">
         <v>0.26250000000000001</v>
       </c>
-      <c r="L25">
+      <c r="Q25">
         <v>32.777920000000002</v>
       </c>
-      <c r="M25">
+      <c r="R25">
         <v>32.68506</v>
       </c>
-      <c r="O25">
-        <f>K25/B25</f>
+      <c r="T25">
+        <f>P25/B25</f>
         <v>1.0007624857033932</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="16.5">
+    <row r="26" spans="1:22" ht="16.5">
       <c r="A26" s="1" t="s">
         <v>28</v>
       </c>
@@ -1506,34 +1834,47 @@
       <c r="D26">
         <v>21.958829999999999</v>
       </c>
-      <c r="F26" s="6">
+      <c r="F26">
         <v>0.40620000000000001</v>
       </c>
-      <c r="G26" s="5">
+      <c r="G26" s="3">
+        <v>42.151130000000002</v>
+      </c>
+      <c r="H26" s="3">
+        <v>20.83813</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="0"/>
+        <v>1.0542434466649364</v>
+      </c>
+      <c r="K26" s="6">
+        <v>0.40620000000000001</v>
+      </c>
+      <c r="L26" s="5">
         <v>42.174790000000002</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>20.851990000000001</v>
       </c>
-      <c r="I26">
-        <f>F26/B26</f>
+      <c r="N26">
+        <f>K26/B26</f>
         <v>1.0542434466649364</v>
       </c>
-      <c r="K26">
+      <c r="P26">
         <v>0.37430000000000002</v>
       </c>
-      <c r="L26">
+      <c r="Q26">
         <v>28.89049</v>
       </c>
-      <c r="M26">
+      <c r="R26">
         <v>21.660350000000001</v>
       </c>
-      <c r="O26">
-        <f>K26/B26</f>
+      <c r="T26">
+        <f>P26/B26</f>
         <v>0.97145081754477047</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="16.5">
+    <row r="27" spans="1:22" ht="16.5">
       <c r="A27" s="1" t="s">
         <v>29</v>
       </c>
@@ -1546,66 +1887,86 @@
       <c r="D27">
         <v>22.14771</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27">
+        <v>0.40250000000000002</v>
+      </c>
+      <c r="G27" s="3">
+        <v>42.541910000000001</v>
+      </c>
+      <c r="H27" s="3">
+        <v>21.027159999999999</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="0"/>
+        <v>1.0536649214659686</v>
+      </c>
+      <c r="K27" s="6">
         <v>0.40239999999999998</v>
       </c>
-      <c r="G27" s="5">
+      <c r="L27" s="5">
         <v>42.592309999999998</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>21.048390000000001</v>
       </c>
-      <c r="I27">
-        <f>F27/B27</f>
+      <c r="N27">
+        <f>K27/B27</f>
         <v>1.0534031413612566</v>
       </c>
-      <c r="K27">
+      <c r="P27">
         <v>0.371</v>
       </c>
-      <c r="L27">
+      <c r="Q27">
         <v>29.779309999999999</v>
       </c>
-      <c r="M27">
+      <c r="R27">
         <v>21.82715</v>
       </c>
-      <c r="O27">
-        <f>K27/B27</f>
+      <c r="T27">
+        <f>P27/B27</f>
         <v>0.97120418848167533</v>
       </c>
     </row>
-    <row r="28" spans="1:17">
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="1:17">
-      <c r="H29" s="2"/>
+    <row r="28" spans="1:22">
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:22">
       <c r="I29" t="s">
         <v>31</v>
       </c>
-      <c r="O29" t="s">
+      <c r="M29" s="2"/>
+      <c r="N29" t="s">
         <v>31</v>
       </c>
-      <c r="P29" t="s">
+      <c r="T29" t="s">
+        <v>31</v>
+      </c>
+      <c r="U29" t="s">
         <v>32</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="V29" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:17">
+    <row r="30" spans="1:22">
       <c r="I30">
         <f>GEOMEAN(I3:I27)</f>
+        <v>1.0197074642849602</v>
+      </c>
+      <c r="N30">
+        <f>GEOMEAN(N3:N27)</f>
         <v>1.0188481824021944</v>
       </c>
-      <c r="O30">
-        <f>GEOMEAN(O3:O27)</f>
+      <c r="T30">
+        <f>GEOMEAN(T3:T27)</f>
         <v>1.0090490738296247</v>
       </c>
-      <c r="P30">
-        <f>AVERAGE(L3:L27)</f>
+      <c r="U30">
+        <f>AVERAGE(Q3:Q27)</f>
         <v>15.721091599999999</v>
       </c>
-      <c r="Q30">
-        <f>AVERAGE(M3:M27)</f>
+      <c r="V30">
+        <f>AVERAGE(R3:R27)</f>
         <v>14.780363200000002</v>
       </c>
     </row>
